--- a/TIMPOINTER 테스트케이스.xlsx
+++ b/TIMPOINTER 테스트케이스.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="166">
   <si>
     <t>유스케이스명</t>
   </si>
@@ -4575,13 +4576,93 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예상결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유즈케이스명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선행조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수행절차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수행 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>센서값 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>센서와 애플리케이션이 연결되어있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>센서의 인식범위 안에서 움직인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>센서가 사용자의 움직임을 인식한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>움직임에따라 센서의 값이 변한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>센서가 애플리케이션에 입력받은 데이터를 전송한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애플리케이션에 데이터를 수신한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>터치입력 제스처 식별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애플리케이션이 센서의 데이터를 모아 싱글터치, 더블터치, 드래그, 탭&amp;드래그를 계산한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>센서로부터의 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4664,8 +4745,17 @@
       <name val="book"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4681,6 +4771,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD8D8D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4868,7 +4964,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4977,31 +5073,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5010,14 +5085,56 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5025,25 +5142,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5362,8 +5473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K161" sqref="K161"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5377,18 +5488,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="56"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="34" t="s">
@@ -5455,7 +5566,7 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="41" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -5471,7 +5582,7 @@
       <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="38"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
@@ -5485,7 +5596,7 @@
       <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="38"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="6" t="s">
         <v>103</v>
       </c>
@@ -5543,18 +5654,18 @@
       <c r="J12" s="13"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="37"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="56"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="34" t="s">
@@ -5621,7 +5732,7 @@
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="41" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -5637,7 +5748,7 @@
       <c r="J19" s="15"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="38"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="23" t="s">
         <v>99</v>
       </c>
@@ -5651,7 +5762,7 @@
       <c r="J20" s="15"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="38"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="6" t="s">
         <v>108</v>
       </c>
@@ -5681,7 +5792,7 @@
       <c r="J22" s="18"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="49" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -5697,7 +5808,7 @@
       <c r="J23" s="15"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="44"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="6"/>
       <c r="C24" s="4" t="s">
         <v>110</v>
@@ -5711,7 +5822,7 @@
       <c r="J24" s="15"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="51"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="7"/>
       <c r="C25" s="1" t="s">
         <v>111</v>
@@ -5739,18 +5850,18 @@
       <c r="J26" s="13"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="43"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="53"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="35" t="s">
@@ -5817,7 +5928,7 @@
       <c r="J32" s="18"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="38" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="21" t="s">
@@ -5833,7 +5944,7 @@
       <c r="J33" s="15"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="46"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="6" t="s">
         <v>115</v>
       </c>
@@ -5847,7 +5958,7 @@
       <c r="J34" s="15"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="46"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="6" t="s">
         <v>19</v>
       </c>
@@ -5999,7 +6110,7 @@
       <c r="J45" s="15"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="38" t="s">
         <v>6</v>
       </c>
       <c r="B46" s="25" t="s">
@@ -6015,7 +6126,7 @@
       <c r="J46" s="19"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="46"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="6" t="s">
         <v>120</v>
       </c>
@@ -6029,7 +6140,7 @@
       <c r="J47" s="15"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="46"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="6" t="s">
         <v>19</v>
       </c>
@@ -6099,18 +6210,18 @@
       <c r="L53" s="12"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="41" t="s">
+      <c r="A54" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="43"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="53"/>
       <c r="L54" s="12"/>
     </row>
     <row r="55" spans="1:12">
@@ -6182,7 +6293,7 @@
       <c r="L58" s="12"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="45" t="s">
+      <c r="A59" s="38" t="s">
         <v>6</v>
       </c>
       <c r="B59" s="6" t="s">
@@ -6192,7 +6303,7 @@
       <c r="L59" s="12"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="46"/>
+      <c r="A60" s="39"/>
       <c r="B60" s="6" t="s">
         <v>123</v>
       </c>
@@ -6200,7 +6311,7 @@
       <c r="L60" s="12"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="46"/>
+      <c r="A61" s="39"/>
       <c r="B61" s="6" t="s">
         <v>19</v>
       </c>
@@ -6358,7 +6469,7 @@
       <c r="L71" s="12"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="47" t="s">
+      <c r="A72" s="42" t="s">
         <v>6</v>
       </c>
       <c r="B72" s="22" t="s">
@@ -6374,7 +6485,7 @@
       <c r="J72" s="19"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="44"/>
+      <c r="A73" s="50"/>
       <c r="B73" s="23" t="s">
         <v>129</v>
       </c>
@@ -6388,7 +6499,7 @@
       <c r="J73" s="15"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="44"/>
+      <c r="A74" s="50"/>
       <c r="B74" s="4" t="s">
         <v>130</v>
       </c>
@@ -6402,7 +6513,7 @@
       <c r="J74" s="15"/>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="44"/>
+      <c r="A75" s="50"/>
       <c r="B75" s="4" t="s">
         <v>131</v>
       </c>
@@ -6432,7 +6543,7 @@
       <c r="J76" s="19"/>
     </row>
     <row r="77" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A77" s="48" t="s">
+      <c r="A77" s="54" t="s">
         <v>11</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -6448,7 +6559,7 @@
       <c r="J77" s="19"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="46"/>
+      <c r="A78" s="39"/>
       <c r="B78" s="6"/>
       <c r="C78" s="4" t="s">
         <v>133</v>
@@ -6462,7 +6573,7 @@
       <c r="J78" s="15"/>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="46"/>
+      <c r="A79" s="39"/>
       <c r="B79" s="6"/>
       <c r="C79" s="4" t="s">
         <v>134</v>
@@ -6476,7 +6587,7 @@
       <c r="J79" s="15"/>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="46"/>
+      <c r="A80" s="39"/>
       <c r="B80" s="6" t="s">
         <v>135</v>
       </c>
@@ -6490,7 +6601,7 @@
       <c r="J80" s="15"/>
     </row>
     <row r="81" spans="1:21">
-      <c r="A81" s="46"/>
+      <c r="A81" s="39"/>
       <c r="B81" s="6"/>
       <c r="C81" s="4" t="s">
         <v>136</v>
@@ -6534,10 +6645,10 @@
       <c r="J83" s="13"/>
     </row>
     <row r="85" spans="1:21">
-      <c r="A85" s="41" t="s">
+      <c r="A85" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="B85" s="42"/>
+      <c r="B85" s="45"/>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
@@ -6610,7 +6721,7 @@
       <c r="J89" s="18"/>
     </row>
     <row r="90" spans="1:21">
-      <c r="A90" s="38" t="s">
+      <c r="A90" s="41" t="s">
         <v>6</v>
       </c>
       <c r="B90" s="5" t="s">
@@ -6626,28 +6737,28 @@
       <c r="J90" s="19"/>
     </row>
     <row r="91" spans="1:21">
-      <c r="A91" s="47"/>
+      <c r="A91" s="42"/>
       <c r="B91" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J91" s="15"/>
     </row>
     <row r="92" spans="1:21">
-      <c r="A92" s="47"/>
+      <c r="A92" s="42"/>
       <c r="B92" s="6" t="s">
         <v>36</v>
       </c>
       <c r="J92" s="15"/>
     </row>
     <row r="93" spans="1:21">
-      <c r="A93" s="47"/>
+      <c r="A93" s="42"/>
       <c r="B93" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J93" s="15"/>
     </row>
     <row r="94" spans="1:21">
-      <c r="A94" s="57"/>
+      <c r="A94" s="43"/>
       <c r="B94" s="7" t="s">
         <v>20</v>
       </c>
@@ -6706,10 +6817,10 @@
       <c r="J97" s="18"/>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="41" t="s">
+      <c r="A99" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="B99" s="42"/>
+      <c r="B99" s="45"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
@@ -6784,7 +6895,7 @@
       <c r="J103" s="19"/>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="49" t="s">
+      <c r="A104" s="46" t="s">
         <v>6</v>
       </c>
       <c r="B104" s="5" t="s">
@@ -6800,7 +6911,7 @@
       <c r="J104" s="19"/>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" s="45"/>
+      <c r="A105" s="38"/>
       <c r="B105" s="6" t="s">
         <v>35</v>
       </c>
@@ -6814,7 +6925,7 @@
       <c r="J105" s="15"/>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" s="45"/>
+      <c r="A106" s="38"/>
       <c r="B106" s="6" t="s">
         <v>37</v>
       </c>
@@ -6828,7 +6939,7 @@
       <c r="J106" s="15"/>
     </row>
     <row r="107" spans="1:10">
-      <c r="A107" s="45"/>
+      <c r="A107" s="38"/>
       <c r="B107" s="6" t="s">
         <v>39</v>
       </c>
@@ -6842,7 +6953,7 @@
       <c r="J107" s="15"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="45"/>
+      <c r="A108" s="38"/>
       <c r="B108" s="6" t="s">
         <v>40</v>
       </c>
@@ -6856,7 +6967,7 @@
       <c r="J108" s="15"/>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" s="45"/>
+      <c r="A109" s="38"/>
       <c r="B109" s="6" t="s">
         <v>41</v>
       </c>
@@ -6870,7 +6981,7 @@
       <c r="J109" s="15"/>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110" s="50"/>
+      <c r="A110" s="57"/>
       <c r="B110" s="7" t="s">
         <v>42</v>
       </c>
@@ -6900,7 +7011,7 @@
       <c r="J111" s="15"/>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" s="39" t="s">
+      <c r="A112" s="49" t="s">
         <v>11</v>
       </c>
       <c r="B112" s="5" t="s">
@@ -6916,7 +7027,7 @@
       <c r="J112" s="19"/>
     </row>
     <row r="113" spans="1:13">
-      <c r="A113" s="44"/>
+      <c r="A113" s="50"/>
       <c r="B113" s="6"/>
       <c r="C113" s="11" t="s">
         <v>44</v>
@@ -7027,7 +7138,7 @@
       <c r="L120" s="18"/>
     </row>
     <row r="121" spans="1:13">
-      <c r="A121" s="49" t="s">
+      <c r="A121" s="46" t="s">
         <v>6</v>
       </c>
       <c r="B121" s="5" t="s">
@@ -7045,28 +7156,28 @@
       <c r="L121" s="19"/>
     </row>
     <row r="122" spans="1:13">
-      <c r="A122" s="46"/>
+      <c r="A122" s="39"/>
       <c r="B122" s="6" t="s">
         <v>50</v>
       </c>
       <c r="L122" s="15"/>
     </row>
     <row r="123" spans="1:13">
-      <c r="A123" s="46"/>
+      <c r="A123" s="39"/>
       <c r="B123" s="6" t="s">
         <v>51</v>
       </c>
       <c r="L123" s="15"/>
     </row>
     <row r="124" spans="1:13">
-      <c r="A124" s="46"/>
+      <c r="A124" s="39"/>
       <c r="B124" s="6" t="s">
         <v>52</v>
       </c>
       <c r="L124" s="15"/>
     </row>
     <row r="125" spans="1:13">
-      <c r="A125" s="46"/>
+      <c r="A125" s="39"/>
       <c r="B125" s="6" t="s">
         <v>53</v>
       </c>
@@ -7107,7 +7218,7 @@
       <c r="L127" s="18"/>
     </row>
     <row r="128" spans="1:13">
-      <c r="A128" s="39" t="s">
+      <c r="A128" s="49" t="s">
         <v>11</v>
       </c>
       <c r="B128" s="11" t="s">
@@ -7123,70 +7234,70 @@
       <c r="L128" s="19"/>
     </row>
     <row r="129" spans="1:12">
-      <c r="A129" s="44"/>
+      <c r="A129" s="50"/>
       <c r="C129" s="11" t="s">
         <v>55</v>
       </c>
       <c r="L129" s="15"/>
     </row>
     <row r="130" spans="1:12">
-      <c r="A130" s="44"/>
+      <c r="A130" s="50"/>
       <c r="C130" s="11" t="s">
         <v>56</v>
       </c>
       <c r="L130" s="15"/>
     </row>
     <row r="131" spans="1:12">
-      <c r="A131" s="44"/>
+      <c r="A131" s="50"/>
       <c r="D131" s="11" t="s">
         <v>57</v>
       </c>
       <c r="L131" s="15"/>
     </row>
     <row r="132" spans="1:12">
-      <c r="A132" s="44"/>
+      <c r="A132" s="50"/>
       <c r="C132" s="11" t="s">
         <v>58</v>
       </c>
       <c r="L132" s="15"/>
     </row>
     <row r="133" spans="1:12">
-      <c r="A133" s="44"/>
+      <c r="A133" s="50"/>
       <c r="D133" s="11" t="s">
         <v>59</v>
       </c>
       <c r="L133" s="15"/>
     </row>
     <row r="134" spans="1:12">
-      <c r="A134" s="44"/>
+      <c r="A134" s="50"/>
       <c r="D134" s="11" t="s">
         <v>60</v>
       </c>
       <c r="L134" s="15"/>
     </row>
     <row r="135" spans="1:12">
-      <c r="A135" s="44"/>
+      <c r="A135" s="50"/>
       <c r="B135" s="11" t="s">
         <v>61</v>
       </c>
       <c r="L135" s="15"/>
     </row>
     <row r="136" spans="1:12">
-      <c r="A136" s="44"/>
+      <c r="A136" s="50"/>
       <c r="C136" s="11" t="s">
         <v>62</v>
       </c>
       <c r="L136" s="15"/>
     </row>
     <row r="137" spans="1:12">
-      <c r="A137" s="44"/>
-      <c r="C137" s="58" t="s">
+      <c r="A137" s="50"/>
+      <c r="C137" s="36" t="s">
         <v>145</v>
       </c>
       <c r="L137" s="15"/>
     </row>
     <row r="138" spans="1:12">
-      <c r="A138" s="44"/>
+      <c r="A138" s="50"/>
       <c r="C138" s="11" t="s">
         <v>63</v>
       </c>
@@ -7272,7 +7383,7 @@
       <c r="G145" s="18"/>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="49" t="s">
+      <c r="A146" s="46" t="s">
         <v>6</v>
       </c>
       <c r="B146" s="5" t="s">
@@ -7285,14 +7396,14 @@
       <c r="G146" s="19"/>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="46"/>
+      <c r="A147" s="39"/>
       <c r="B147" s="6" t="s">
         <v>69</v>
       </c>
       <c r="G147" s="15"/>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="46"/>
+      <c r="A148" s="39"/>
       <c r="B148" s="6" t="s">
         <v>70</v>
       </c>
@@ -7347,16 +7458,16 @@
       <c r="G152" s="18"/>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="41" t="s">
+      <c r="A154" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="B154" s="42"/>
-      <c r="C154" s="42"/>
-      <c r="D154" s="42"/>
-      <c r="E154" s="42"/>
-      <c r="F154" s="42"/>
-      <c r="G154" s="42"/>
-      <c r="H154" s="43"/>
+      <c r="B154" s="45"/>
+      <c r="C154" s="45"/>
+      <c r="D154" s="45"/>
+      <c r="E154" s="45"/>
+      <c r="F154" s="45"/>
+      <c r="G154" s="45"/>
+      <c r="H154" s="53"/>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="31" t="s">
@@ -7401,7 +7512,7 @@
       <c r="H157" s="19"/>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="48" t="s">
+      <c r="A158" s="54" t="s">
         <v>4</v>
       </c>
       <c r="B158" s="5" t="s">
@@ -7427,7 +7538,7 @@
       <c r="H159" s="13"/>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="49" t="s">
+      <c r="A160" s="46" t="s">
         <v>6</v>
       </c>
       <c r="B160" s="6" t="s">
@@ -7436,7 +7547,7 @@
       <c r="H160" s="15"/>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="46"/>
+      <c r="A161" s="39"/>
       <c r="B161" s="6" t="s">
         <v>78</v>
       </c>
@@ -7505,16 +7616,16 @@
       <c r="H166" s="3"/>
     </row>
     <row r="167" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A167" s="41" t="s">
+      <c r="A167" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="B167" s="42"/>
-      <c r="C167" s="42"/>
-      <c r="D167" s="42"/>
-      <c r="E167" s="42"/>
-      <c r="F167" s="42"/>
-      <c r="G167" s="42"/>
-      <c r="H167" s="43"/>
+      <c r="B167" s="45"/>
+      <c r="C167" s="45"/>
+      <c r="D167" s="45"/>
+      <c r="E167" s="45"/>
+      <c r="F167" s="45"/>
+      <c r="G167" s="45"/>
+      <c r="H167" s="53"/>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="31" t="s">
@@ -7559,7 +7670,7 @@
       <c r="H170" s="18"/>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="39" t="s">
+      <c r="A171" s="49" t="s">
         <v>4</v>
       </c>
       <c r="B171" s="5" t="s">
@@ -7580,7 +7691,7 @@
       <c r="H172" s="15"/>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="49" t="s">
+      <c r="A173" s="46" t="s">
         <v>6</v>
       </c>
       <c r="B173" s="5" t="s">
@@ -7594,7 +7705,7 @@
       <c r="H173" s="19"/>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="46"/>
+      <c r="A174" s="39"/>
       <c r="B174" s="7" t="s">
         <v>85</v>
       </c>
@@ -7646,11 +7757,11 @@
       <c r="H177" s="18"/>
     </row>
     <row r="179" spans="1:9">
-      <c r="A179" s="53" t="s">
+      <c r="A179" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="B179" s="54"/>
-      <c r="C179" s="54"/>
+      <c r="B179" s="48"/>
+      <c r="C179" s="48"/>
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
       <c r="F179" s="9"/>
@@ -7719,7 +7830,7 @@
       <c r="I183" s="18"/>
     </row>
     <row r="184" spans="1:9">
-      <c r="A184" s="55" t="s">
+      <c r="A184" s="51" t="s">
         <v>6</v>
       </c>
       <c r="B184" s="5" t="s">
@@ -7734,21 +7845,21 @@
       <c r="I184" s="19"/>
     </row>
     <row r="185" spans="1:9">
-      <c r="A185" s="56"/>
+      <c r="A185" s="52"/>
       <c r="B185" s="6" t="s">
         <v>89</v>
       </c>
       <c r="I185" s="15"/>
     </row>
     <row r="186" spans="1:9">
-      <c r="A186" s="56"/>
+      <c r="A186" s="52"/>
       <c r="B186" s="6" t="s">
         <v>90</v>
       </c>
       <c r="I186" s="15"/>
     </row>
     <row r="187" spans="1:9">
-      <c r="A187" s="56"/>
+      <c r="A187" s="52"/>
       <c r="B187" s="7" t="s">
         <v>71</v>
       </c>
@@ -7770,7 +7881,7 @@
       <c r="I188" s="15"/>
     </row>
     <row r="189" spans="1:9">
-      <c r="A189" s="52" t="s">
+      <c r="A189" s="37" t="s">
         <v>11</v>
       </c>
       <c r="B189" s="5" t="s">
@@ -7785,7 +7896,7 @@
       <c r="I189" s="19"/>
     </row>
     <row r="190" spans="1:9">
-      <c r="A190" s="52"/>
+      <c r="A190" s="37"/>
       <c r="B190" s="6"/>
       <c r="C190" s="11" t="s">
         <v>92</v>
@@ -7793,7 +7904,7 @@
       <c r="I190" s="15"/>
     </row>
     <row r="191" spans="1:9">
-      <c r="A191" s="52"/>
+      <c r="A191" s="37"/>
       <c r="B191" s="6"/>
       <c r="C191" s="11" t="s">
         <v>93</v>
@@ -7801,7 +7912,7 @@
       <c r="I191" s="15"/>
     </row>
     <row r="192" spans="1:9">
-      <c r="A192" s="52"/>
+      <c r="A192" s="37"/>
       <c r="B192" s="6"/>
       <c r="C192" s="11" t="s">
         <v>94</v>
@@ -7809,7 +7920,7 @@
       <c r="I192" s="15"/>
     </row>
     <row r="193" spans="1:9">
-      <c r="A193" s="52"/>
+      <c r="A193" s="37"/>
       <c r="B193" s="6"/>
       <c r="D193" s="11" t="s">
         <v>95</v>
@@ -7817,7 +7928,7 @@
       <c r="I193" s="15"/>
     </row>
     <row r="194" spans="1:9">
-      <c r="A194" s="52"/>
+      <c r="A194" s="37"/>
       <c r="B194" s="6"/>
       <c r="C194" s="11" t="s">
         <v>96</v>
@@ -7825,7 +7936,7 @@
       <c r="I194" s="15"/>
     </row>
     <row r="195" spans="1:9">
-      <c r="A195" s="52"/>
+      <c r="A195" s="37"/>
       <c r="B195" s="7"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1" t="s">
@@ -7852,19 +7963,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A189:A195"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A90:A94"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A121:A126"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="A128:A138"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="A160:A162"/>
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="A184:A187"/>
-    <mergeCell ref="A154:H154"/>
-    <mergeCell ref="A158:A159"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A171:A172"/>
@@ -7881,9 +7979,321 @@
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A189:A195"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A90:A94"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A121:A126"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="A128:A138"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="A160:A162"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="A184:A187"/>
+    <mergeCell ref="A154:H154"/>
+    <mergeCell ref="A158:A159"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="7.25" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.25" customWidth="1"/>
+    <col min="5" max="5" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.625" customWidth="1"/>
+    <col min="7" max="7" width="30.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11">
+      <c r="B2" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="63" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="61"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="61"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="61"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="61"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="61"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="61"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="61"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="61"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="61"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="61"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="61"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="61"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="61"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="61"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="61"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="61"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="61"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TIMPOINTER 테스트케이스.xlsx
+++ b/TIMPOINTER 테스트케이스.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18909"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devil\OneDrive\학습자료\캡스톤\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A96C6E4-FE61-42CC-A5A7-CEC2AE32C155}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="104">
   <si>
     <t>번호</t>
   </si>
@@ -58,9 +57,6 @@
   </si>
   <si>
     <t>해당 프로그램이 실행</t>
-  </si>
-  <si>
-    <t>왼쪽 센서로부터 160cm 거리의 아이콘을 더블터치</t>
   </si>
   <si>
     <t>2.a</t>
@@ -234,22 +230,10 @@
     <t>9-4</t>
   </si>
   <si>
-    <t>센서를 이용해 화면크기를 탐지하여 반영</t>
-  </si>
-  <si>
-    <t>탐지된 화면 크기를 화면에 표시</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
     <t>해상도 변경 감지</t>
-  </si>
-  <si>
-    <t>운영체제의 해상도가 변경됨</t>
-  </si>
-  <si>
-    <t>변경된 해상도를 설정에 반영</t>
   </si>
   <si>
     <t>11</t>
@@ -288,9 +272,6 @@
     <t>센서와 연결오류발생시 재연결</t>
   </si>
   <si>
-    <t>센서와 애플리케이션가 단절</t>
-  </si>
-  <si>
     <t>화면 오른쪽 아래에 센서와 연결이 끊겼다고 표시</t>
   </si>
   <si>
@@ -313,24 +294,42 @@
   </si>
   <si>
     <t>화면 오른쪽 아래에 센서를 점검해달라는 알림 표시</t>
+  </si>
+  <si>
+    <t>운영체제의 해상도를 1600x900에서 1920x1080으로 변경</t>
+  </si>
+  <si>
+    <t>변경된 해상도에서도 정상적인 터치</t>
+  </si>
+  <si>
+    <t>탐지된 화면 크기가 모니터 길이와 3cm이내로 일치</t>
+  </si>
+  <si>
+    <t>왼쪽 센서로부터 대각선 160cm 거리의 아이콘을 더블터치</t>
+  </si>
+  <si>
+    <t>센서를 27인치 모니터에 설치</t>
+  </si>
+  <si>
+    <t>센서와 애플리케이션이 단절</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -339,7 +338,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -575,62 +574,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -949,504 +948,499 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{E768BFC2-4E2D-5088-BB3A-B5001F7384CE}">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="6.1875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.171875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.4140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.73046875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.43359375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.01171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="27"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="18"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="F3" s="21"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="23"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="12" t="s">
+      <c r="B9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="12" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="12" t="s">
+      <c r="B11" s="25" t="s">
         <v>35</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>36</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="8"/>
       <c r="D12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="12" t="s">
+      <c r="B13" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="C13" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1">
-      <c r="A14" s="12" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1">
-      <c r="A15" s="12" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A16" s="12" t="s">
+      <c r="B16" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="D16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
-      <c r="A17" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" s="2" customFormat="1">
-      <c r="A18" s="18" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="22" t="s">
+      <c r="D18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="23"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" s="2" customFormat="1">
-      <c r="A20" s="12" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" s="2" customFormat="1">
-      <c r="A21" s="12" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="4" t="s">
+      <c r="B22" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" s="2" customFormat="1">
-      <c r="A22" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="4" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" ht="33">
-      <c r="A23" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>75</v>
+    <row r="23" spans="1:6" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="41.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" ht="49.5">
-      <c r="A24" s="12" t="s">
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B25" s="25" t="s">
         <v>79</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" s="2" customFormat="1">
-      <c r="A25" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>84</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:6" s="2" customFormat="1">
-      <c r="A26" s="12" t="s">
+      <c r="E27" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" s="2" customFormat="1">
-      <c r="A27" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-    </row>
-    <row r="29" spans="1:6" s="2" customFormat="1">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-    </row>
-    <row r="30" spans="1:6" s="2" customFormat="1">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-    </row>
-    <row r="31" spans="1:6" s="2" customFormat="1">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-    </row>
-    <row r="32" spans="1:6" s="2" customFormat="1">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
+    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+    </row>
+    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+    </row>
+    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+    </row>
+    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+    </row>
+    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-    </row>
-    <row r="34" spans="1:3" s="2" customFormat="1">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-    </row>
-    <row r="35" spans="1:3" s="2" customFormat="1">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-    </row>
-    <row r="36" spans="1:3" s="2" customFormat="1">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-    </row>
-    <row r="37" spans="1:3" s="2" customFormat="1">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-    </row>
-    <row r="38" spans="1:3" s="2" customFormat="1">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-    </row>
-    <row r="39" spans="1:3" s="2" customFormat="1">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+    </row>
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+    </row>
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+    </row>
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+    </row>
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+    </row>
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+    </row>
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C3:C10"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C13:C15"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C16:C17"/>
@@ -1455,6 +1449,11 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C13:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TIMPOINTER 테스트케이스.xlsx
+++ b/TIMPOINTER 테스트케이스.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devil\OneDrive\학습자료\캡스톤\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="62" documentId="11_53AE130F0719C9A7C59BFD3BAF801AF268999054" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{13D1F245-9DE9-4DA5-B21D-62EBAD35C842}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171026"/>
+  <calcPr calcId="179016"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="96">
   <si>
     <t>번호</t>
   </si>
@@ -59,6 +60,12 @@
     <t>해당 프로그램이 실행</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>왼쪽 센서로부터 대각선 160cm 거리의 아이콘을 더블터치</t>
+  </si>
+  <si>
     <t>2.a</t>
   </si>
   <si>
@@ -69,6 +76,9 @@
   </si>
   <si>
     <t>화면에 비정상적인 입력이라고 표시</t>
+  </si>
+  <si>
+    <t>o</t>
   </si>
   <si>
     <t>3</t>
@@ -209,7 +219,7 @@
     <t>하나의 센서만 탐지됨</t>
   </si>
   <si>
-    <t>화면에 하나의 센서만 탐지도었다고 표시</t>
+    <t>화면에 하나의 센서만 탐지되었다고 표시</t>
   </si>
   <si>
     <t>두개의 센서를 탐지하여 연결</t>
@@ -230,10 +240,22 @@
     <t>9-4</t>
   </si>
   <si>
+    <t>센서를 27인치 모니터에 설치</t>
+  </si>
+  <si>
+    <t>탐지된 화면 크기가 모니터 길이와 3cm이내로 일치</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
     <t>해상도 변경 감지</t>
+  </si>
+  <si>
+    <t>운영체제의 해상도를 1600x900에서 1920x1080으로 변경</t>
+  </si>
+  <si>
+    <t>변경된 해상도에서도 정상적인 터치</t>
   </si>
   <si>
     <t>11</t>
@@ -272,6 +294,9 @@
     <t>센서와 연결오류발생시 재연결</t>
   </si>
   <si>
+    <t>센서와 애플리케이션이 단절</t>
+  </si>
+  <si>
     <t>화면 오른쪽 아래에 센서와 연결이 끊겼다고 표시</t>
   </si>
   <si>
@@ -290,35 +315,17 @@
     <t>13-2a</t>
   </si>
   <si>
-    <t>애플리케이션과 센서가 15초이상 단절</t>
+    <t>애플리케이션과 센서가 5초이상 단절</t>
   </si>
   <si>
     <t>화면 오른쪽 아래에 센서를 점검해달라는 알림 표시</t>
-  </si>
-  <si>
-    <t>운영체제의 해상도를 1600x900에서 1920x1080으로 변경</t>
-  </si>
-  <si>
-    <t>변경된 해상도에서도 정상적인 터치</t>
-  </si>
-  <si>
-    <t>탐지된 화면 크기가 모니터 길이와 3cm이내로 일치</t>
-  </si>
-  <si>
-    <t>왼쪽 센서로부터 대각선 160cm 거리의 아이콘을 더블터치</t>
-  </si>
-  <si>
-    <t>센서를 27인치 모니터에 설치</t>
-  </si>
-  <si>
-    <t>센서와 애플리케이션이 단절</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,47 +578,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -947,50 +954,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F4D476-1F75-409C-96A4-C7F817F2FDFA}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{E768BFC2-4E2D-5088-BB3A-B5001F7384CE}">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0" xr3:uid="{E768BFC2-4E2D-5088-BB3A-B5001F7384CE}">
+      <selection activeCell="G4" sqref="G4:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.1875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.171875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.4140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.73046875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.43359375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.01171875" style="1"/>
+    <col min="1" max="1" width="6.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+    <row r="1" spans="1:6">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="22" t="s">
         <v>6</v>
       </c>
@@ -1000,444 +1007,494 @@
       <c r="C3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="21"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="23"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
       <c r="D4" s="4" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>12</v>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="8" t="s">
         <v>16</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="C11" s="19"/>
       <c r="D11" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1">
+      <c r="A14" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
       <c r="D14" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1">
+      <c r="A15" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
       <c r="D15" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="2" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A16" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1">
+      <c r="A17" s="21" t="s">
         <v>54</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="27"/>
       <c r="D17" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1">
       <c r="A18" s="23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="A19" s="23"/>
       <c r="B19" s="25"/>
       <c r="C19" s="27"/>
       <c r="D19" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1">
+      <c r="A20" s="21" t="s">
+        <v>66</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="27"/>
       <c r="D20" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1">
+      <c r="A21" s="21" t="s">
+        <v>69</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="27"/>
       <c r="D21" s="4" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="8"/>
+        <v>71</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1">
+      <c r="A22" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="19"/>
       <c r="D22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="2" customFormat="1" ht="27.75">
+      <c r="A23" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="41.25">
+      <c r="A24" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="2" customFormat="1">
+      <c r="A25" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F25" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="2" customFormat="1">
+      <c r="A26" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" ht="41.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
-        <v>81</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="25" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>85</v>
+        <v>92</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="2" customFormat="1">
+      <c r="A27" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-    </row>
-    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-    </row>
-    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-    </row>
-    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-    </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
+        <v>95</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="2" customFormat="1">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" s="2" customFormat="1">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" s="2" customFormat="1">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" s="2" customFormat="1">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" s="2" customFormat="1">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-    </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-    </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-    </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-    </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-    </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-    </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
+    <row r="33" spans="1:3" s="2" customFormat="1">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+    </row>
+    <row r="34" spans="1:3" s="2" customFormat="1">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+    </row>
+    <row r="35" spans="1:3" s="2" customFormat="1">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+    </row>
+    <row r="36" spans="1:3" s="2" customFormat="1">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+    </row>
+    <row r="37" spans="1:3" s="2" customFormat="1">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+    </row>
+    <row r="38" spans="1:3" s="2" customFormat="1">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+    </row>
+    <row r="39" spans="1:3" s="2" customFormat="1">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/TIMPOINTER 테스트케이스.xlsx
+++ b/TIMPOINTER 테스트케이스.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20304"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devil\OneDrive\학습자료\캡스톤\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="11_53AE130F0719C9A7C59BFD3BAF801AF268999054" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{13D1F245-9DE9-4DA5-B21D-62EBAD35C842}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="11_53AE130F0719C9A7C59BFD3BAF801AF268999054" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{BDD83517-0896-4616-B766-5CD623247F6F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="104">
   <si>
     <t>번호</t>
   </si>
@@ -45,6 +45,9 @@
     <t>수행 결과</t>
   </si>
   <si>
+    <t>비고</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -60,12 +63,18 @@
     <t>해당 프로그램이 실행</t>
   </si>
   <si>
+    <t xml:space="preserve">x </t>
+  </si>
+  <si>
+    <t>값이 전송은 되나, 센서 오차로 인해 프로그램 실행이 되지 않음</t>
+  </si>
+  <si>
+    <t>왼쪽 센서로부터 대각선 160cm 거리의 아이콘을 더블터치</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
-    <t>왼쪽 센서로부터 대각선 160cm 거리의 아이콘을 더블터치</t>
-  </si>
-  <si>
     <t>2.a</t>
   </si>
   <si>
@@ -93,6 +102,9 @@
     <t>해당 아이콘이 선택됨</t>
   </si>
   <si>
+    <t>센서 오차로 인해 정상적인 선택이 되지 않음</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -127,6 +139,9 @@
   </si>
   <si>
     <t>사진이 확대됨</t>
+  </si>
+  <si>
+    <t>센서 오차로 인해 구현 불가</t>
   </si>
   <si>
     <t>6b</t>
@@ -246,6 +261,9 @@
     <t>탐지된 화면 크기가 모니터 길이와 3cm이내로 일치</t>
   </si>
   <si>
+    <t>센서  오차 및 가리개에 의한 </t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
@@ -300,6 +318,9 @@
     <t>화면 오른쪽 아래에 센서와 연결이 끊겼다고 표시</t>
   </si>
   <si>
+    <t>데이터 수신이 1초이상 되지 않을경우</t>
+  </si>
+  <si>
     <t>13-2,3</t>
   </si>
   <si>
@@ -310,6 +331,9 @@
   </si>
   <si>
     <t>화면 오른쪽 아래에 센서와 재 연결 되었다고 표시</t>
+  </si>
+  <si>
+    <t>통신불량 문제로 단절시 재연결 불가</t>
   </si>
   <si>
     <t>13-2a</t>
@@ -611,32 +635,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -952,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F4D476-1F75-409C-96A4-C7F817F2FDFA}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0" xr3:uid="{E768BFC2-4E2D-5088-BB3A-B5001F7384CE}">
-      <selection activeCell="G4" sqref="G4:G28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0" xr3:uid="{E768BFC2-4E2D-5088-BB3A-B5001F7384CE}">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -965,11 +989,12 @@
     <col min="3" max="3" width="39.375" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="48.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="9.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="54.125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" ht="13.5">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -977,7 +1002,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" ht="13.5">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -993,469 +1018,521 @@
       <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="22" t="s">
+      <c r="G2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="24" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="13.5">
+      <c r="A3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>8</v>
       </c>
+      <c r="C3" s="25" t="s">
+        <v>9</v>
+      </c>
       <c r="D3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="13.5">
+      <c r="A4" s="27"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="13.5">
+      <c r="A5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="13.5">
+      <c r="A6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="13.5">
+      <c r="A7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13.5">
+      <c r="A9" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="13.5">
+      <c r="A10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.5">
+      <c r="A11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="13.5">
+      <c r="A12" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="13.5">
+      <c r="A13" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="23"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="4" t="s">
+      <c r="D13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="4" t="s">
+      <c r="G13" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="13.5">
+      <c r="A14" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="13.5">
+      <c r="A15" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A16" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A8" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1">
-      <c r="A14" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1">
-      <c r="A15" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A16" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
-      <c r="A17" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="27"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="13.5">
+      <c r="A17" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="2" customFormat="1">
-      <c r="A18" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="27" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="13.5">
+      <c r="A18" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A19" s="23"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="27"/>
+        <v>68</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A19" s="27"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="2" customFormat="1">
-      <c r="A20" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="27"/>
+        <v>70</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" s="2" customFormat="1" ht="13.5">
+      <c r="A20" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="2" customFormat="1">
-      <c r="A21" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="27"/>
+        <v>73</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="13.5">
+      <c r="A21" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="2" customFormat="1">
-      <c r="A22" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="19"/>
+        <v>76</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1" ht="13.5">
+      <c r="A22" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="20"/>
       <c r="D22" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" ht="27.75">
-      <c r="A23" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>8</v>
+        <v>81</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" s="2" customFormat="1" ht="27">
+      <c r="A23" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>9</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" ht="41.25">
-      <c r="A24" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1" ht="40.5">
+      <c r="A24" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="2" customFormat="1">
-      <c r="A25" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>8</v>
+        <v>90</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" s="2" customFormat="1" ht="13.5">
+      <c r="A25" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>9</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="2" customFormat="1">
-      <c r="A26" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25" t="s">
-        <v>90</v>
+        <v>94</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1" ht="13.5">
+      <c r="A26" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22" t="s">
+        <v>97</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="2" customFormat="1">
+        <v>99</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="2" customFormat="1" ht="13.5">
       <c r="A27" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
+        <v>101</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="5" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="2" customFormat="1">
+        <v>103</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" s="2" customFormat="1" ht="13.5">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
     </row>
-    <row r="29" spans="1:6" s="2" customFormat="1">
+    <row r="29" spans="1:7" s="2" customFormat="1">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
     </row>
-    <row r="30" spans="1:6" s="2" customFormat="1">
+    <row r="30" spans="1:7" s="2" customFormat="1">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
     </row>
-    <row r="31" spans="1:6" s="2" customFormat="1">
+    <row r="31" spans="1:7" s="2" customFormat="1">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
     </row>
-    <row r="32" spans="1:6" s="2" customFormat="1">
+    <row r="32" spans="1:7" s="2" customFormat="1">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -1498,6 +1575,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C13:C15"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C16:C17"/>
@@ -1506,11 +1588,6 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C3:C10"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C13:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
